--- a/compulsory-2/shortest_remaining_proc_time.xlsx
+++ b/compulsory-2/shortest_remaining_proc_time.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\DAT158_Machine_Learning\compulsory-2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7AA1F7C-7D39-4FE1-978D-17DF18D2318E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8716A53-DD89-4FA2-9E7B-0744EAF43007}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="22">
   <si>
     <t xml:space="preserve">M1 </t>
   </si>
@@ -42,9 +42,6 @@
     <t xml:space="preserve">2 (remaining 4) </t>
   </si>
   <si>
-    <t xml:space="preserve">3 (remaining 3) </t>
-  </si>
-  <si>
     <t xml:space="preserve">4 (remaining 1) </t>
   </si>
   <si>
@@ -72,18 +69,9 @@
     <t xml:space="preserve">5 (finished) </t>
   </si>
   <si>
-    <t xml:space="preserve">1 (remaining 3) </t>
-  </si>
-  <si>
     <t xml:space="preserve">7 (remaining 2) </t>
   </si>
   <si>
-    <t>1 (remaining 3)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7 (finished) </t>
-  </si>
-  <si>
     <t xml:space="preserve">finished Jobs </t>
   </si>
   <si>
@@ -94,16 +82,31 @@
   </si>
   <si>
     <t xml:space="preserve">on changes) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 (remaining1) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 (remaining 2) </t>
+  </si>
+  <si>
+    <t>1 (finished)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -165,15 +168,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -505,8 +509,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C13:AU38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="T29" sqref="T29"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="R32" sqref="R32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -541,11 +545,11 @@
   </cols>
   <sheetData>
     <row r="13" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F13" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
+      <c r="F13" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
     </row>
     <row r="17" spans="3:47" x14ac:dyDescent="0.3">
       <c r="D17" t="s">
@@ -691,47 +695,47 @@
       <c r="F18" s="2">
         <v>3</v>
       </c>
-      <c r="G18" s="4">
+      <c r="G18" s="3">
         <v>4</v>
       </c>
-      <c r="H18" s="5">
+      <c r="H18" s="4">
         <v>3</v>
       </c>
-      <c r="I18" s="5">
+      <c r="I18" s="4">
         <v>3</v>
       </c>
-      <c r="J18" s="5">
-        <v>3</v>
+      <c r="J18" s="2">
+        <v>6</v>
       </c>
       <c r="K18" s="2">
         <v>6</v>
       </c>
-      <c r="L18" s="2">
-        <v>6</v>
-      </c>
-      <c r="M18" s="4">
-        <v>2</v>
-      </c>
-      <c r="N18" s="4">
-        <v>2</v>
-      </c>
-      <c r="O18" s="4">
-        <v>2</v>
-      </c>
-      <c r="P18" s="4">
-        <v>2</v>
-      </c>
-      <c r="Q18" s="7">
+      <c r="L18" s="3">
+        <v>2</v>
+      </c>
+      <c r="M18" s="3">
+        <v>2</v>
+      </c>
+      <c r="N18" s="3">
+        <v>2</v>
+      </c>
+      <c r="O18" s="3">
+        <v>2</v>
+      </c>
+      <c r="P18" s="6">
         <v>5</v>
       </c>
-      <c r="R18" s="7">
+      <c r="Q18" s="6">
         <v>5</v>
       </c>
-      <c r="S18" s="7">
+      <c r="R18" s="6">
         <v>5</v>
       </c>
-      <c r="T18" s="7">
+      <c r="S18" s="6">
         <v>5</v>
+      </c>
+      <c r="T18" s="1">
+        <v>1</v>
       </c>
       <c r="U18" s="1">
         <v>1</v>
@@ -742,129 +746,125 @@
       <c r="W18" s="1">
         <v>1</v>
       </c>
-      <c r="X18" s="4">
+      <c r="X18" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y18" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z18" s="3">
         <v>7</v>
       </c>
-      <c r="Y18" s="4">
+      <c r="AA18" s="3">
         <v>7</v>
-      </c>
-      <c r="Z18" s="1">
-        <v>1</v>
-      </c>
-      <c r="AA18" s="1">
-        <v>1</v>
-      </c>
-      <c r="AB18" s="1">
-        <v>1</v>
       </c>
     </row>
     <row r="20" spans="3:47" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E20" t="s">
         <v>2</v>
       </c>
-      <c r="K20" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>2</v>
-      </c>
-      <c r="U20" t="s">
+      <c r="J20" t="s">
+        <v>2</v>
+      </c>
+      <c r="P20" t="s">
+        <v>2</v>
+      </c>
+      <c r="T20" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="21" spans="3:47" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="K21" t="s">
+      <c r="J21" t="s">
         <v>4</v>
       </c>
-      <c r="Q21" s="6" t="s">
+      <c r="P21" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="T21" s="5" t="s">
         <v>13</v>
-      </c>
-      <c r="U21" s="6" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="22" spans="3:47" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F22" t="s">
         <v>2</v>
       </c>
-      <c r="K22" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="X22" t="s">
-        <v>15</v>
+      <c r="J22" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="P22" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="X22" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="3:47" x14ac:dyDescent="0.3">
       <c r="F23" t="s">
         <v>4</v>
       </c>
-      <c r="K23" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q23" s="3"/>
-      <c r="X23" s="4" t="s">
-        <v>16</v>
+      <c r="J23" t="s">
+        <v>7</v>
+      </c>
+      <c r="X23" s="7" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="24" spans="3:47" x14ac:dyDescent="0.3">
       <c r="F24" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="K24" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="Z24" s="1" t="s">
-        <v>17</v>
+        <v>8</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z24" s="5" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="25" spans="3:47" x14ac:dyDescent="0.3">
       <c r="G25" t="s">
         <v>2</v>
       </c>
-      <c r="M25" t="s">
-        <v>2</v>
-      </c>
-      <c r="Z25" s="6" t="s">
-        <v>18</v>
+      <c r="L25" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z25" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="26" spans="3:47" x14ac:dyDescent="0.3">
       <c r="G26" t="s">
         <v>4</v>
       </c>
-      <c r="M26" s="4" t="s">
+      <c r="L26" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="27" spans="3:47" x14ac:dyDescent="0.3">
-      <c r="G27" s="3" t="s">
+      <c r="G27" t="s">
+        <v>8</v>
+      </c>
+      <c r="L27" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="3:47" x14ac:dyDescent="0.3">
+      <c r="G28" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M27" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="28" spans="3:47" x14ac:dyDescent="0.3">
-      <c r="G28" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="M28" s="6" t="s">
-        <v>12</v>
+      <c r="L28" s="5" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="29" spans="3:47" x14ac:dyDescent="0.3">
@@ -878,18 +878,18 @@
       </c>
     </row>
     <row r="31" spans="3:47" x14ac:dyDescent="0.3">
-      <c r="H31" s="5" t="s">
-        <v>5</v>
+      <c r="H31" s="4" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="32" spans="3:47" x14ac:dyDescent="0.3">
-      <c r="H32" s="6" t="s">
+      <c r="H32" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H33" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="33" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H33" s="3" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="34" spans="8:9" x14ac:dyDescent="0.3">
@@ -903,18 +903,18 @@
       </c>
     </row>
     <row r="36" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="I36" s="5" t="s">
+      <c r="I36" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="37" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="I37" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="I38" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="37" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="I37" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="38" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="I38" s="3" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
